--- a/public/upload-file/CompetitionResultUpload.xlsx
+++ b/public/upload-file/CompetitionResultUpload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHUPESH MISHRA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC246BD-E290-4B9F-8B26-A659E704BE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0E9EEB-C682-4F2E-89A6-D1C8CC2874B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{528BF9E7-4CA6-4C2F-B588-602E80C3987E}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>1st</t>
   </si>
@@ -75,6 +64,24 @@
   </si>
   <si>
     <t>Certificate Id</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>SUD-060623G</t>
+  </si>
+  <si>
+    <t>SUD-020723BO</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -506,96 +513,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7891C0-4A43-4875-98ED-5BCD04E0A13E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1">
         <v>1</v>
       </c>
     </row>
